--- a/data/trans_camb/P16B10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 8,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 7,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 5,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 4,79</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,08%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 9,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 8,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 5,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 5,09</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,49</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 12,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,48</t>
         </is>
       </c>
     </row>
@@ -928,17 +928,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-7,33</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
     </row>
@@ -966,17 +966,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-34,18; 0,0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,9; 0,0</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,33%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,39%</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-34,18; 0,0</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,9; 0,0</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 8,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 6,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,11; 4,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 4,11</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 8,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 7,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,13; 4,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 4,32</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B10-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 5,01</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 5,04</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,93</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,3</t>
+          <t>0,87; 7,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 7,45</t>
+          <t>-0,11; 6,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,39</t>
+          <t>1,08; 5,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,79</t>
+          <t>0,33; 4,63</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 5,28</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 5,31</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,18</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,05</t>
+          <t>0,87; 8,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 8,23</t>
+          <t>-0,11; 7,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,7</t>
+          <t>1,1; 5,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 5,09</t>
+          <t>0,33; 4,9</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,77</t>
+          <t>0,0; 9,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,68</t>
+          <t>0,0; 9,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,05</t>
+          <t>0,0; 22,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,86</t>
+          <t>0,0; 19,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,61</t>
+          <t>0,0; 8,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,49</t>
+          <t>0,0; 9,48</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,06</t>
+          <t>0,0; 11,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,51</t>
+          <t>0,0; 10,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,08</t>
+          <t>0,0; 29,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,25</t>
+          <t>0,0; 23,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,42</t>
+          <t>0,0; 9,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,48</t>
+          <t>0,0; 10,47</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 0,0</t>
+          <t>-32,25; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 0,0</t>
+          <t>-17,45; 0,0</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 0,0</t>
+          <t>-32,25; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 0,0</t>
+          <t>-17,45; 0,0</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,05</t>
+          <t>0,44; 4,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,43</t>
+          <t>0,44; 4,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 8,1</t>
+          <t>1,22; 7,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 6,65</t>
+          <t>-0,68; 5,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,37</t>
+          <t>1,1; 4,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,11</t>
+          <t>0,21; 3,69</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,23</t>
+          <t>0,44; 4,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,63</t>
+          <t>0,44; 4,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 8,82</t>
+          <t>1,23; 7,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 7,16</t>
+          <t>-0,69; 6,22</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,13; 4,57</t>
+          <t>1,11; 4,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,32</t>
+          <t>0,21; 3,85</t>
         </is>
       </c>
     </row>
